--- a/data_process/xlsx/jongno_C4.xlsx
+++ b/data_process/xlsx/jongno_C4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,14 +508,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=PLACE_AD&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EB%B3%B4%EB%93%9C%EA%B2%8C%EC%9E%84%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142879893</t>
+          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=PLACE_AD&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EB%B3%B4%EB%93%9C%EA%B2%8C%EC%9E%84%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=126.98538857845901&amp;y=37.56941750703431&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>보드게임카페 레드버튼 대학로점</t>
+          <t>퍼스트보드게임카페 대학로점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,34 +530,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 9 4층</t>
+          <t>서울 종로구 대학로 130 3층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02-763-3799</t>
+          <t>0507-1482-1259</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1806183610/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142889025</t>
+          <t>https://pcmap.place.naver.com/place/1518228901/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0021374&amp;y=37.582893&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>퍼스트보드게임카페 대학로점</t>
+          <t>보드게임카페 레드버튼 대학로점</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,7 +572,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -567,17 +582,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 130 3층</t>
+          <t>서울 종로구 대명길 9 4층</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0507-1482-1259</t>
+          <t>02-763-3799</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1518228901/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142898357</t>
+          <t>https://pcmap.place.naver.com/place/1806183610/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00098711510178&amp;y=37.583286089241945&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
@@ -594,12 +614,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -614,14 +634,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142907867</t>
+          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98538857845901&amp;y=37.56941750703431&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>보드게임카페 보드스토리</t>
+          <t>플렉스 보드게임카페</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,34 +656,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>302</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 종로12길 16 대성빌딩</t>
+          <t>서울 종로구 종로 119 3층 FLEX 보드게임카페</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02-732-5400</t>
+          <t>0507-1485-0369</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33410043/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142916993</t>
+          <t>https://pcmap.place.naver.com/place/1731558575/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9908641&amp;y=37.5705766&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>플렉스 보드게임카페</t>
+          <t>보드게임카페 보드스토리</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -673,22 +703,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>410</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 119 3층 FLEX 보드게임카페</t>
+          <t>서울 종로구 종로12길 16 대성빌딩</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1485-0369</t>
+          <t>02-732-5400</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1731558575/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142926271</t>
+          <t>https://pcmap.place.naver.com/place/33410043/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9855816&amp;y=37.569343399999994&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
@@ -705,12 +740,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -725,14 +760,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1050017666/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142935454</t>
+          <t>https://pcmap.place.naver.com/place/1050017666/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9892169&amp;y=37.5707949&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>블랙조커 동묘점</t>
+          <t>펀타임 대학로점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,34 +782,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 336 2층</t>
+          <t>서울 종로구 대명길 24 5층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1432-9077</t>
+          <t>070-7568-0327</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1695028416/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142944632</t>
+          <t>https://pcmap.place.naver.com/place/33907132/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00025470000001&amp;y=37.58344609999999&amp;timestamp=202309071827</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>히어로보드게임카페 대학로점</t>
+          <t>블랙문</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -784,29 +829,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 12 2층 히어로보드게임카페</t>
+          <t>서울 서대문구 통일로 105 2층 블랙문</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1393-2901</t>
+          <t>010-5291-2114</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1868073958/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142955622</t>
+          <t>https://pcmap.place.naver.com/place/1020105286/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9675889&amp;y=37.5643583&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>펀타임 대학로점</t>
+          <t>히어로보드게임카페 대학로점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,34 +866,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>481</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 24 5층</t>
+          <t>서울 종로구 대학로10길 12 2층 히어로보드게임카페</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>070-7568-0327</t>
+          <t>0507-1393-2901</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33907132/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142966493</t>
+          <t>https://pcmap.place.naver.com/place/1868073958/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0027888&amp;y=37.5816693&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>블랙문</t>
+          <t>블랙조커 동묘점</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -853,27 +908,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 서대문구 통일로 105 2층 블랙문</t>
+          <t>서울 종로구 종로 336 2층</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>010-5291-2114</t>
+          <t>0507-1432-9077</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1020105286/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142976629</t>
+          <t>https://pcmap.place.naver.com/place/1695028416/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0150048&amp;y=37.5726259&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
@@ -895,7 +955,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -910,14 +970,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1038810896/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142985632</t>
+          <t>https://pcmap.place.naver.com/place/1038810896/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9844144&amp;y=37.5636223&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>보드게임 101</t>
+          <t>레드다이스</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,34 +992,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 종로구 새문안로3길 23 경희궁의아침4단지 B2 107호</t>
+          <t>서울 종로구 창경궁로29길 25 명륜빌딩 명륜빌딩 2층 202호</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1393-0688</t>
+          <t>02-765-7455</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1975804552/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142996528</t>
+          <t>https://pcmap.place.naver.com/place/35608499/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9974041&amp;y=37.5837121&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>레드다이스</t>
+          <t>보드게임 101</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -969,22 +1039,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로29길 25 명륜빌딩 명륜빌딩 2층 202호</t>
+          <t>서울 종로구 새문안로3길 23 경희궁의아침4단지 B2 107호</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02-765-7455</t>
+          <t>0507-1393-0688</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35608499/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143006272</t>
+          <t>https://pcmap.place.naver.com/place/1975804552/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9724575&amp;y=37.5724333&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1076,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1021,7 +1096,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1428465543/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143015574</t>
+          <t>https://pcmap.place.naver.com/place/1428465543/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0151137&amp;y=37.5665317&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1138,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1793763614/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143024541</t>
+          <t>https://pcmap.place.naver.com/place/1793763614/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9963695&amp;y=37.5588368&amp;timestamp=202309071828</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
     </row>
